--- a/Docs/Project Management/Gantt_Chart.xlsx
+++ b/Docs/Project Management/Gantt_Chart.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Year 3\Part III Project\Docs\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libaries\Uni Work\Year 3\Part III Project\Docs\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -714,27 +714,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -770,6 +749,27 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -1066,13 +1066,13 @@
     <col min="7" max="8" width="6.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="6.85546875" style="14" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="72" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="55" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="79" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="65" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" style="72" customWidth="1"/>
     <col min="14" max="14" width="6.85546875" style="14" customWidth="1"/>
-    <col min="15" max="15" width="6.85546875" style="54" customWidth="1"/>
-    <col min="16" max="17" width="6.85546875" style="55" customWidth="1"/>
-    <col min="18" max="18" width="6.85546875" style="56" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" style="47" customWidth="1"/>
+    <col min="16" max="17" width="6.85546875" style="48" customWidth="1"/>
+    <col min="18" max="18" width="6.85546875" style="49" customWidth="1"/>
     <col min="19" max="19" width="6.85546875" style="13" customWidth="1"/>
     <col min="20" max="21" width="6.85546875" style="4" customWidth="1"/>
     <col min="22" max="22" width="6.85546875" style="14" customWidth="1"/>
@@ -1087,50 +1087,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="41" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="41" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="45" t="s">
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="41" t="s">
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="42"/>
-      <c r="U1" s="42"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="41" t="s">
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="42"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="41" t="s">
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="44"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="78"/>
       <c r="AF1" s="36"/>
       <c r="AG1" s="36"/>
       <c r="AH1" s="36"/>
@@ -1172,28 +1172,28 @@
       <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="77" t="s">
+      <c r="M2" s="70" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="50" t="s">
+      <c r="R2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="S2" s="7" t="s">
@@ -1258,14 +1258,14 @@
       <c r="H3" s="15"/>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="78"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="71"/>
       <c r="N3" s="16"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="46"/>
       <c r="S3" s="17"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="27"/>
-      <c r="G5" s="66"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="21"/>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
@@ -1306,14 +1306,14 @@
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
       <c r="J6" s="27"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="80"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="73"/>
       <c r="N6" s="26"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="59"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="27"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
@@ -1335,17 +1335,17 @@
       <c r="A7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="82"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="12"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="80"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="73"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="61"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
       <c r="S7" s="19"/>
     </row>
     <row r="8" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -1353,13 +1353,13 @@
         <v>34</v>
       </c>
       <c r="F8" s="30"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="80"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="73"/>
     </row>
     <row r="9" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
@@ -1368,52 +1368,52 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="29"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="80"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="30"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="64"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="1:40" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="80"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="73"/>
       <c r="N11" s="29"/>
-      <c r="P11" s="68"/>
+      <c r="P11" s="61"/>
       <c r="S11" s="19"/>
     </row>
     <row r="12" spans="1:40" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="66"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="80"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="69"/>
-      <c r="R12" s="81"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="73"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="74"/>
       <c r="S12" s="11"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -1423,10 +1423,10 @@
       <c r="A13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="62"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="67"/>
+      <c r="O13" s="55"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="60"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
       <c r="V13" s="38"/>
@@ -1435,11 +1435,11 @@
       <c r="A14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="67"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="60"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
     </row>
@@ -1447,8 +1447,8 @@
       <c r="A15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="81"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="74"/>
       <c r="S15" s="30"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="73"/>
+      <c r="K26" s="66"/>
     </row>
     <row r="27" spans="1:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
@@ -1580,7 +1580,7 @@
         <v>47</v>
       </c>
       <c r="J28" s="11"/>
-      <c r="K28" s="74"/>
+      <c r="K28" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
